--- a/4-Inventory/Kit and Sample Lists/WG_Kit_Value.xlsx
+++ b/4-Inventory/Kit and Sample Lists/WG_Kit_Value.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\4-Inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/4-Inventory/Kit and Sample Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC3562F-65DB-4C72-AC24-6361F0A12169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{CBC3562F-65DB-4C72-AC24-6361F0A12169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8638FE7A-6ED9-4ED2-9A88-95BB6DE2EB04}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7677251-B87D-4366-8E9A-A2D4FC8A821C}"/>
+    <workbookView minimized="1" xWindow="1500" yWindow="1224" windowWidth="15588" windowHeight="11016" xr2:uid="{E7677251-B87D-4366-8E9A-A2D4FC8A821C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -726,22 +726,22 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -798,7 +798,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -829,7 +829,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -860,7 +860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -891,7 +891,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -922,7 +922,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -953,7 +953,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -984,7 +984,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G16" s="9" t="s">
         <v>40</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>81.215533333333326</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>41</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
